--- a/Unity/Assets/Config/Excel/Datas/AbilityConfig/UnitConfig/UnitCfg.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/AbilityConfig/UnitConfig/UnitCfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\Datas\AbilityConfig\ResConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\Datas\AbilityConfig\UnitConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8144193-4959-435D-8672-B761FE2D99DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E63267D-CBA6-4EA2-89EB-FFD93D05FF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24984" yWindow="2820" windowWidth="17280" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25536" yWindow="3480" windowWidth="17280" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -41,6 +41,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -51,6 +52,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -66,6 +68,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -76,6 +79,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -103,6 +107,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -113,6 +118,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -126,10 +132,6 @@
     <t>描述</t>
   </si>
   <si>
-    <t>res_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -137,18 +139,6 @@
     <t>资源路径</t>
   </si>
   <si>
-    <t>string#path=unity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab1.prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab2.prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>prefab1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -157,19 +147,37 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ResUnit</t>
+    <t>Unit</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/ResAB/UnitPrefab</t>
+    <t>对象1</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>res_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string#ref=AbilityConfig.ResUnitCfg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUnit_1</t>
+  </si>
+  <si>
+    <t>ResUnit_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +189,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -188,18 +197,12 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -286,16 +289,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -573,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -586,12 +590,10 @@
     <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -606,11 +608,11 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1"/>
+      <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
@@ -627,10 +629,8 @@
       <c r="W1"/>
       <c r="X1"/>
       <c r="Y1"/>
-      <c r="Z1"/>
-      <c r="AA1"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -640,8 +640,8 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="H2"/>
+      <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -658,17 +658,15 @@
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>5</v>
@@ -676,11 +674,11 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="G3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -697,10 +695,8 @@
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -712,8 +708,8 @@
         <v>7</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="H4"/>
+      <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -730,10 +726,8 @@
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -748,11 +742,11 @@
       <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -769,57 +763,47 @@
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>20</v>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="str">
         <f>B6&amp;"_"&amp;C6</f>
-        <v>ResUnit_1</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="7" t="s">
+        <v>Unit_1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I6" s="8" t="str">
-        <f>G6&amp;"/"&amp;H6</f>
-        <v>Assets/ResAB/UnitPrefab/prefab1.prefab</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="str">
         <f>B7&amp;"_"&amp;C7</f>
-        <v>ResUnit_2</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="8" t="str">
-        <f>G7&amp;"/"&amp;H7</f>
-        <v>Assets/ResAB/UnitPrefab/prefab2.prefab</v>
+        <v>Unit_2</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
